--- a/Stroken Planning C9.xlsx
+++ b/Stroken Planning C9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e9653fbc2cf592b/scorro/CH9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e9653fbc2cf592b/scorro/Kom-een-end-met-front--en-backend-PayPalooza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF9B440-638E-4686-9482-415C4DFDCC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{5DF9B440-638E-4686-9482-415C4DFDCC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF4FD9EC-CDB1-483D-8C7E-AACF68B41C8C}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -111,24 +111,6 @@
     <t xml:space="preserve">Back end </t>
   </si>
   <si>
-    <t xml:space="preserve">elementen voor front end </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSS gebruiken voor uiterlijk front end </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML gebruiken voor layout Front end </t>
-  </si>
-  <si>
-    <t xml:space="preserve">my sql gebruiken voor data base </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database linken met backend code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back end toepassen voor datbase gerelateerde taken </t>
-  </si>
-  <si>
     <t xml:space="preserve">Leanboard </t>
   </si>
   <si>
@@ -228,9 +210,6 @@
     <t>Coachdag</t>
   </si>
   <si>
-    <t xml:space="preserve">quintis/hedwig </t>
-  </si>
-  <si>
     <t>quintis/hedwig</t>
   </si>
   <si>
@@ -252,12 +231,6 @@
     <t>AYCL</t>
   </si>
   <si>
-    <t>Oriënteren op PHP</t>
-  </si>
-  <si>
-    <t>Backend coderen met PHP</t>
-  </si>
-  <si>
     <t>hedwig/Quintis</t>
   </si>
   <si>
@@ -265,13 +238,37 @@
   </si>
   <si>
     <t>Reflectie</t>
+  </si>
+  <si>
+    <t>Registratie/Aanmeld scherm</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Transactiescherm</t>
+  </si>
+  <si>
+    <t>Budgetscherm</t>
+  </si>
+  <si>
+    <t>Tabel "Users"</t>
+  </si>
+  <si>
+    <t>Tabel "Transactions"</t>
+  </si>
+  <si>
+    <t>Tabel "Budgets"</t>
+  </si>
+  <si>
+    <t>Hedwig/Quintis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +299,21 @@
     <font>
       <sz val="12"/>
       <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -408,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,6 +447,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -781,10 +795,10 @@
   <dimension ref="A1:BJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Q10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -801,92 +815,92 @@
     </row>
     <row r="2" spans="1:62" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23" t="s">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23" t="s">
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23" t="s">
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="23"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="25"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1089,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8"/>
       <c r="F5" s="13"/>
@@ -1111,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1132,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1153,7 +1167,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1201,7 +1215,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C10" s="8"/>
       <c r="F10" s="13"/>
@@ -1271,7 +1285,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1311,10 +1325,10 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1339,10 +1353,10 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
@@ -1366,10 +1380,10 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1394,12 +1408,12 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="7"/>
@@ -1424,13 +1438,13 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1484,7 +1498,7 @@
     </row>
     <row r="20" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5"/>
       <c r="E20" s="3"/>
@@ -1502,7 +1516,7 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D21" s="7"/>
       <c r="F21" s="13"/>
@@ -1524,10 +1538,10 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1544,11 +1558,11 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D23" s="13"/>
       <c r="F23" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -1641,7 +1655,7 @@
       </c>
       <c r="F28" s="13"/>
       <c r="H28" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="10"/>
@@ -1665,7 +1679,7 @@
       </c>
       <c r="F29" s="13"/>
       <c r="H29" s="21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N29" s="13"/>
       <c r="P29" s="9"/>
@@ -1683,19 +1697,19 @@
       <c r="BB29" s="13"/>
       <c r="BF29" s="13"/>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>24</v>
+    <row r="30" spans="1:61" ht="18" x14ac:dyDescent="0.35">
+      <c r="B30" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="F30" s="13"/>
       <c r="I30" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N30" s="13"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
       <c r="S30" s="20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
@@ -1711,13 +1725,13 @@
       <c r="BB30" s="13"/>
       <c r="BF30" s="13"/>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>26</v>
+    <row r="31" spans="1:61" ht="18" x14ac:dyDescent="0.35">
+      <c r="B31" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="F31" s="13"/>
       <c r="K31" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N31" s="13"/>
       <c r="R31" s="13"/>
@@ -1726,10 +1740,10 @@
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
       <c r="W31" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z31" s="13"/>
       <c r="AH31" s="13"/>
@@ -1742,13 +1756,13 @@
       <c r="BB31" s="13"/>
       <c r="BF31" s="13"/>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>25</v>
+    <row r="32" spans="1:61" ht="18" x14ac:dyDescent="0.35">
+      <c r="B32" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="F32" s="13"/>
       <c r="L32" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N32" s="13"/>
       <c r="R32" s="13"/>
@@ -1757,10 +1771,10 @@
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
       <c r="W32" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="13"/>
@@ -1774,13 +1788,13 @@
       <c r="BB32" s="13"/>
       <c r="BF32" s="13"/>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>27</v>
+    <row r="33" spans="1:62" ht="18" x14ac:dyDescent="0.35">
+      <c r="B33" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="F33" s="13"/>
       <c r="K33" s="21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="N33" s="13"/>
       <c r="R33" s="13"/>
@@ -1801,13 +1815,13 @@
       <c r="BB33" s="13"/>
       <c r="BF33" s="13"/>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
-        <v>28</v>
+    <row r="34" spans="1:62" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="F34" s="13"/>
       <c r="L34" s="21" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M34" s="21"/>
       <c r="N34" s="13"/>
@@ -1828,9 +1842,9 @@
       <c r="BB34" s="13"/>
       <c r="BF34" s="13"/>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>29</v>
+    <row r="35" spans="1:62" ht="18" x14ac:dyDescent="0.35">
+      <c r="B35" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="F35" s="13"/>
       <c r="N35" s="13"/>
@@ -1840,7 +1854,7 @@
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
       <c r="W35" s="21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="X35" s="21"/>
       <c r="Z35" s="13"/>
@@ -1853,9 +1867,9 @@
       <c r="BB35" s="13"/>
       <c r="BF35" s="13"/>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>71</v>
+    <row r="36" spans="1:62" ht="18" x14ac:dyDescent="0.35">
+      <c r="B36" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="F36" s="13"/>
       <c r="N36" s="13"/>
@@ -1866,7 +1880,7 @@
       <c r="V36" s="20"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="21" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AB36" s="21"/>
       <c r="AC36" s="21"/>
@@ -1886,9 +1900,6 @@
       <c r="BF36" s="13"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F37" s="13"/>
       <c r="N37" s="13"/>
       <c r="R37" s="13"/>
@@ -1935,7 +1946,7 @@
     </row>
     <row r="39" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B39" s="5"/>
       <c r="F39" s="13"/>
@@ -1957,20 +1968,20 @@
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F40" s="13"/>
       <c r="J40" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
@@ -1991,7 +2002,7 @@
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F41" s="13"/>
       <c r="J41" s="8"/>
@@ -2017,7 +2028,7 @@
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F42" s="13"/>
       <c r="J42" s="8"/>
@@ -2041,7 +2052,7 @@
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F43" s="13"/>
       <c r="J43" s="8"/>
@@ -2072,7 +2083,7 @@
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F44" s="13"/>
       <c r="J44" s="8"/>
@@ -2098,7 +2109,7 @@
     </row>
     <row r="45" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B45" s="5"/>
       <c r="F45" s="13"/>
@@ -2197,37 +2208,37 @@
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="6"/>
       <c r="C55" s="21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
